--- a/www/IndicatorsPerCountry/Comoros_GDPperCapita_TerritorialRef_1975_2012_CCode_174.xlsx
+++ b/www/IndicatorsPerCountry/Comoros_GDPperCapita_TerritorialRef_1975_2012_CCode_174.xlsx
@@ -231,13 +231,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Comoros_GDPperCapita_TerritorialRef_1975_2012_CCode_174.xlsx
+++ b/www/IndicatorsPerCountry/Comoros_GDPperCapita_TerritorialRef_1975_2012_CCode_174.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,172 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>649</t>
+    <t>534</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>679</t>
   </si>
   <si>
     <t>671</t>
   </si>
   <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>703</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>887</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>984</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>963</t>
+    <t>714</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1038</t>
   </si>
   <si>
     <t>1009</t>
   </si>
   <si>
-    <t>1154</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>804</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>685.097498229</t>
-  </si>
-  <si>
-    <t>629.902499236</t>
-  </si>
-  <si>
-    <t>663.911864034</t>
-  </si>
-  <si>
-    <t>663.996607997</t>
-  </si>
-  <si>
-    <t>610.349607493</t>
-  </si>
-  <si>
-    <t>643.852815246</t>
-  </si>
-  <si>
-    <t>616.808018504</t>
-  </si>
-  <si>
-    <t>624.855620482</t>
-  </si>
-  <si>
-    <t>611.643263199</t>
-  </si>
-  <si>
-    <t>605.778773155</t>
-  </si>
-  <si>
-    <t>580.685969867</t>
-  </si>
-  <si>
-    <t>576.738976992</t>
-  </si>
-  <si>
-    <t>572.66500724</t>
-  </si>
-  <si>
-    <t>570.055205346</t>
-  </si>
-  <si>
-    <t>576.457240978</t>
-  </si>
-  <si>
-    <t>583.647738812</t>
-  </si>
-  <si>
-    <t>572.775792991</t>
-  </si>
-  <si>
-    <t>559.446850441</t>
-  </si>
-  <si>
-    <t>549.3491852</t>
+    <t>964</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>1081</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1149</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1162</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1101.00358737775</t>
+  </si>
+  <si>
+    <t>1185.51412091475</t>
+  </si>
+  <si>
+    <t>1210.63529556643</t>
+  </si>
+  <si>
+    <t>1136.74353640223</t>
+  </si>
+  <si>
+    <t>1166.93684731292</t>
+  </si>
+  <si>
+    <t>1141.60158685115</t>
+  </si>
+  <si>
+    <t>1177.58252420305</t>
+  </si>
+  <si>
+    <t>1179.84405666537</t>
+  </si>
+  <si>
+    <t>1189.2566885002</t>
+  </si>
+  <si>
+    <t>1204.40239235915</t>
+  </si>
+  <si>
+    <t>1217.49922137723</t>
+  </si>
+  <si>
+    <t>1229.85592357994</t>
+  </si>
+  <si>
+    <t>1240.05133670709</t>
+  </si>
+  <si>
+    <t>1247.27494837471</t>
+  </si>
+  <si>
+    <t>1265.68670368259</t>
+  </si>
+  <si>
+    <t>1388.00263430292</t>
+  </si>
+  <si>
+    <t>1382.53908934196</t>
+  </si>
+  <si>
+    <t>1419.36709608481</t>
+  </si>
+  <si>
+    <t>1455.28233833545</t>
+  </si>
+  <si>
+    <t>1432.56242087922</t>
+  </si>
+  <si>
+    <t>1479</t>
+  </si>
+  <si>
+    <t>1509</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>1702</t>
   </si>
   <si>
     <t>Description</t>
@@ -778,7 +805,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -795,7 +822,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -812,7 +839,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -931,7 +958,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -948,7 +975,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
@@ -965,7 +992,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -982,7 +1009,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -999,7 +1026,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1016,7 +1043,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1033,7 +1060,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1050,7 +1077,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1067,7 +1094,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1084,7 +1111,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1101,7 +1128,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1118,7 +1145,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1135,7 +1162,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1179,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1169,7 +1196,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1186,7 +1213,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1203,7 +1230,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1220,7 +1247,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1237,7 +1264,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -1254,7 +1281,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1271,7 +1298,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1288,7 +1315,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1305,7 +1332,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1323,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
